--- a/ch04/models/MobHealthRecycling/data/mortality-rate.xlsx
+++ b/ch04/models/MobHealthRecycling/data/mortality-rate.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sdaza/Documents/github/dissertation/ch04/models/mob_health_testing/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sdaza/Documents/git/dissertation/ch04/models/MobHealthRecycling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6878AF56-15E9-1444-BF68-F78B63891851}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mortality-rates" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,19 +28,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>age</t>
   </si>
   <si>
     <t>rate</t>
+  </si>
+  <si>
+    <t>512.8</t>
+  </si>
+  <si>
+    <t>21.1</t>
+  </si>
+  <si>
+    <t>10.6</t>
+  </si>
+  <si>
+    <t>12.3</t>
+  </si>
+  <si>
+    <t>29.4</t>
+  </si>
+  <si>
+    <t>50.9</t>
+  </si>
+  <si>
+    <t>68.8</t>
+  </si>
+  <si>
+    <t>93.5</t>
+  </si>
+  <si>
+    <t>120.5</t>
+  </si>
+  <si>
+    <t>163.9</t>
+  </si>
+  <si>
+    <t>240.6</t>
+  </si>
+  <si>
+    <t>375.5</t>
+  </si>
+  <si>
+    <t>563.4</t>
+  </si>
+  <si>
+    <t>795.4</t>
+  </si>
+  <si>
+    <t>1154.5</t>
+  </si>
+  <si>
+    <t>1809.5</t>
+  </si>
+  <si>
+    <t>2973.6</t>
+  </si>
+  <si>
+    <t>5123.9</t>
+  </si>
+  <si>
+    <t>12966.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -87,6 +145,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -354,16 +415,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -371,84 +432,156 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>6.796E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>1.6699999999999999E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="3">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3">
         <v>15</v>
       </c>
-      <c r="B4" s="1">
-        <v>7.3799999999999994E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3">
         <v>25</v>
       </c>
-      <c r="B5" s="1">
-        <v>1.616E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3">
         <v>35</v>
       </c>
-      <c r="B6" s="1">
-        <v>2.166E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3">
         <v>45</v>
       </c>
-      <c r="B7" s="1">
-        <v>4.3070000000000001E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3">
+        <v>50</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3">
         <v>55</v>
       </c>
-      <c r="B8" s="1">
-        <v>9.3209999999999994E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3">
+        <v>60</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3">
         <v>65</v>
       </c>
-      <c r="B9" s="2">
-        <v>1.8841E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3">
+        <v>70</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3">
         <v>75</v>
       </c>
-      <c r="B10" s="2">
-        <v>4.7046000000000004E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3">
+        <v>80</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3">
         <v>85</v>
       </c>
-      <c r="B11" s="2">
-        <v>0.14699799999999999</v>
+      <c r="B20" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/ch04/models/MobHealthRecycling/data/mortality-rate.xlsx
+++ b/ch04/models/MobHealthRecycling/data/mortality-rate.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sdaza/Documents/git/dissertation/ch04/models/MobHealthRecycling/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y7514957C\Documents\git\dissertation\ch04\models\MobHealthRecycling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6878AF56-15E9-1444-BF68-F78B63891851}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="mortality-rates" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -36,68 +35,68 @@
     <t>rate</t>
   </si>
   <si>
-    <t>512.8</t>
-  </si>
-  <si>
-    <t>21.1</t>
-  </si>
-  <si>
-    <t>10.6</t>
-  </si>
-  <si>
-    <t>12.3</t>
-  </si>
-  <si>
-    <t>29.4</t>
-  </si>
-  <si>
-    <t>50.9</t>
-  </si>
-  <si>
-    <t>68.8</t>
-  </si>
-  <si>
-    <t>93.5</t>
-  </si>
-  <si>
-    <t>120.5</t>
-  </si>
-  <si>
-    <t>163.9</t>
-  </si>
-  <si>
-    <t>240.6</t>
-  </si>
-  <si>
-    <t>375.5</t>
-  </si>
-  <si>
-    <t>563.4</t>
-  </si>
-  <si>
-    <t>795.4</t>
-  </si>
-  <si>
-    <t>1154.5</t>
-  </si>
-  <si>
-    <t>1809.5</t>
-  </si>
-  <si>
-    <t>2973.6</t>
-  </si>
-  <si>
-    <t>5123.9</t>
-  </si>
-  <si>
-    <t>12966.5</t>
+    <t>567.0</t>
+  </si>
+  <si>
+    <t>24.3</t>
+  </si>
+  <si>
+    <t>11.6</t>
+  </si>
+  <si>
+    <t>15.5</t>
+  </si>
+  <si>
+    <t>51.5</t>
+  </si>
+  <si>
+    <t>95.6</t>
+  </si>
+  <si>
+    <t>121.0</t>
+  </si>
+  <si>
+    <t>145.4</t>
+  </si>
+  <si>
+    <t>173.8</t>
+  </si>
+  <si>
+    <t>218.4</t>
+  </si>
+  <si>
+    <t>313.2</t>
+  </si>
+  <si>
+    <t>488.0</t>
+  </si>
+  <si>
+    <t>736.5</t>
+  </si>
+  <si>
+    <t>1050.2</t>
+  </si>
+  <si>
+    <t>1473.5</t>
+  </si>
+  <si>
+    <t>2206.9</t>
+  </si>
+  <si>
+    <t>3517.8</t>
+  </si>
+  <si>
+    <t>5871.7</t>
+  </si>
+  <si>
+    <t>13573.6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -415,16 +414,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -440,7 +439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -448,7 +447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>5</v>
       </c>
@@ -456,7 +455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>10</v>
       </c>
@@ -464,7 +463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>15</v>
       </c>
@@ -472,7 +471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>20</v>
       </c>
@@ -480,7 +479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>25</v>
       </c>
@@ -488,7 +487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>30</v>
       </c>
@@ -496,7 +495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>35</v>
       </c>
@@ -504,7 +503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>40</v>
       </c>
@@ -512,7 +511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>45</v>
       </c>
@@ -520,7 +519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>50</v>
       </c>
@@ -528,7 +527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>55</v>
       </c>
@@ -536,7 +535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>60</v>
       </c>
@@ -544,7 +543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>65</v>
       </c>
@@ -552,7 +551,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>70</v>
       </c>
@@ -560,7 +559,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>75</v>
       </c>
@@ -568,7 +567,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>80</v>
       </c>
@@ -576,7 +575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>85</v>
       </c>
